--- a/biology/Botanique/Sparassis/Sparassis.xlsx
+++ b/biology/Botanique/Sparassis/Sparassis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Sparassis sont un genre de champignons basidiomycètes, l'un des deux de la famille des sparassidacées.
 Leur nom a été construit sur le grec sparassein, "déchirer", "mettre en lambeaux", en référence à leur aspect découpé. La même racine a été reprise pour la famille, les Sparassidacées, et pour son autre genre, les Sparassiella. Elle est également utilisée pour une importante famille d'araignées, les Sparassidae. 
@@ -512,9 +524,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Sparassis comptent 9 espèces selon Catalogue of life et selon la 10e édition de Dictionary of the Fungi[1] (2007) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Sparassis comptent 9 espèces selon Catalogue of life et selon la 10e édition de Dictionary of the Fungi (2007) :
 Sparassis brevipes
 Sparassis crispa
 Sparassis cystidiosa
@@ -553,7 +567,9 @@
           <t>Sources et liens externes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Référence Index Fungorum : Sparassis  (+ liste espèces) (+ MycoBank)
 (en) Référence Catalogue of Life : Sparassis (consulté le 11 décembre 2020)</t>
